--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Ephb2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H2">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I2">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J2">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.8783055092127</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N2">
-        <v>2.8783055092127</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O2">
-        <v>0.83605129775894</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P2">
-        <v>0.83605129775894</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q2">
-        <v>24.7385995337788</v>
+        <v>26.56980992219866</v>
       </c>
       <c r="R2">
-        <v>24.7385995337788</v>
+        <v>159.418859533192</v>
       </c>
       <c r="S2">
-        <v>0.320841020116289</v>
+        <v>0.3075312331956604</v>
       </c>
       <c r="T2">
-        <v>0.320841020116289</v>
+        <v>0.2567941514955643</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H3">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I3">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J3">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0166510490548062</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N3">
-        <v>0.0166510490548062</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O3">
-        <v>0.004836571770008642</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P3">
-        <v>0.004836571770008642</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q3">
-        <v>0.1431132425191479</v>
+        <v>0.1557307583906666</v>
       </c>
       <c r="R3">
-        <v>0.1431132425191479</v>
+        <v>0.9343845503439998</v>
       </c>
       <c r="S3">
-        <v>0.001856071062523059</v>
+        <v>0.001802499615714755</v>
       </c>
       <c r="T3">
-        <v>0.001856071062523059</v>
+        <v>0.001505119836377916</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.594848411538329</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H4">
-        <v>8.594848411538329</v>
+        <v>17.241476</v>
       </c>
       <c r="I4">
-        <v>0.383757576809357</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J4">
-        <v>0.383757576809357</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.547781365742757</v>
+        <v>0.057175</v>
       </c>
       <c r="N4">
-        <v>0.547781365742757</v>
+        <v>0.171525</v>
       </c>
       <c r="O4">
-        <v>0.1591121304710512</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P4">
-        <v>0.1591121304710512</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q4">
-        <v>4.708097801224432</v>
+        <v>0.49289069515</v>
       </c>
       <c r="R4">
-        <v>4.708097801224432</v>
+        <v>2.9573441709</v>
       </c>
       <c r="S4">
-        <v>0.06106048563054486</v>
+        <v>0.005704944211268283</v>
       </c>
       <c r="T4">
-        <v>0.06106048563054486</v>
+        <v>0.004763731777221132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.84597276610613</v>
+        <v>8.620737999999999</v>
       </c>
       <c r="H5">
-        <v>4.84597276610613</v>
+        <v>17.241476</v>
       </c>
       <c r="I5">
-        <v>0.2163713281444803</v>
+        <v>0.3739306639504602</v>
       </c>
       <c r="J5">
-        <v>0.2163713281444803</v>
+        <v>0.2958469204929191</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.8783055092127</v>
+        <v>0.590216</v>
       </c>
       <c r="N5">
-        <v>2.8783055092127</v>
+        <v>1.180432</v>
       </c>
       <c r="O5">
-        <v>0.83605129775894</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P5">
-        <v>0.83605129775894</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q5">
-        <v>13.94819011017798</v>
+        <v>5.088097499408</v>
       </c>
       <c r="R5">
-        <v>13.94819011017798</v>
+        <v>20.352389997632</v>
       </c>
       <c r="S5">
-        <v>0.1808975296930182</v>
+        <v>0.05889198692781672</v>
       </c>
       <c r="T5">
-        <v>0.1808975296930182</v>
+        <v>0.03278391738375568</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.84597276610613</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H6">
-        <v>4.84597276610613</v>
+        <v>15.23399</v>
       </c>
       <c r="I6">
-        <v>0.2163713281444803</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J6">
-        <v>0.2163713281444803</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0166510490548062</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N6">
-        <v>0.0166510490548062</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O6">
-        <v>0.004836571770008642</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P6">
-        <v>0.004836571770008642</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q6">
-        <v>0.08069053024668806</v>
+        <v>15.65079535173111</v>
       </c>
       <c r="R6">
-        <v>0.08069053024668806</v>
+        <v>140.85715816558</v>
       </c>
       <c r="S6">
-        <v>0.00104649545754287</v>
+        <v>0.1811495230528353</v>
       </c>
       <c r="T6">
-        <v>0.00104649545754287</v>
+        <v>0.2268947006591496</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.84597276610613</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H7">
-        <v>4.84597276610613</v>
+        <v>15.23399</v>
       </c>
       <c r="I7">
-        <v>0.2163713281444803</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J7">
-        <v>0.2163713281444803</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.547781365742757</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N7">
-        <v>0.547781365742757</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O7">
-        <v>0.1591121304710512</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P7">
-        <v>0.1591121304710512</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q7">
-        <v>2.654533580169822</v>
+        <v>0.09173231711777775</v>
       </c>
       <c r="R7">
-        <v>2.654533580169822</v>
+        <v>0.8255908540599998</v>
       </c>
       <c r="S7">
-        <v>0.03442730299391919</v>
+        <v>0.001061752142365012</v>
       </c>
       <c r="T7">
-        <v>0.03442730299391919</v>
+        <v>0.001329873413168501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.413084587598422</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H8">
-        <v>0.413084587598422</v>
+        <v>15.23399</v>
       </c>
       <c r="I8">
-        <v>0.01844411125869873</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J8">
-        <v>0.01844411125869873</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.8783055092127</v>
+        <v>0.057175</v>
       </c>
       <c r="N8">
-        <v>2.8783055092127</v>
+        <v>0.171525</v>
       </c>
       <c r="O8">
-        <v>0.83605129775894</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P8">
-        <v>0.83605129775894</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q8">
-        <v>1.188983644255394</v>
+        <v>0.2903344594166667</v>
       </c>
       <c r="R8">
-        <v>1.188983644255394</v>
+        <v>2.61301013475</v>
       </c>
       <c r="S8">
-        <v>0.01542022315384535</v>
+        <v>0.003360464926360091</v>
       </c>
       <c r="T8">
-        <v>0.01542022315384535</v>
+        <v>0.00420907364641339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.413084587598422</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H9">
-        <v>0.413084587598422</v>
+        <v>15.23399</v>
       </c>
       <c r="I9">
-        <v>0.01844411125869873</v>
+        <v>0.2202617299243859</v>
       </c>
       <c r="J9">
-        <v>0.01844411125869873</v>
+        <v>0.2614004177090131</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0166510490548062</v>
+        <v>0.590216</v>
       </c>
       <c r="N9">
-        <v>0.0166510490548062</v>
+        <v>1.180432</v>
       </c>
       <c r="O9">
-        <v>0.004836571770008642</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P9">
-        <v>0.004836571770008642</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q9">
-        <v>0.006878291731885713</v>
+        <v>2.997114880613333</v>
       </c>
       <c r="R9">
-        <v>0.006878291731885713</v>
+        <v>17.98268928368</v>
       </c>
       <c r="S9">
-        <v>8.920626783672083E-05</v>
+        <v>0.03468998980282548</v>
       </c>
       <c r="T9">
-        <v>8.920626783672083E-05</v>
+        <v>0.02896676999028159</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,433 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.413084587598422</v>
+        <v>0.264576</v>
       </c>
       <c r="H10">
-        <v>0.413084587598422</v>
+        <v>0.793728</v>
       </c>
       <c r="I10">
-        <v>0.01844411125869873</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J10">
-        <v>0.01844411125869873</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.547781365742757</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N10">
-        <v>0.547781365742757</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O10">
-        <v>0.1591121304710512</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P10">
-        <v>0.1591121304710512</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q10">
-        <v>0.2262800395619471</v>
+        <v>0.8154445744639999</v>
       </c>
       <c r="R10">
-        <v>0.2262800395619471</v>
+        <v>7.339001170175999</v>
       </c>
       <c r="S10">
-        <v>0.002934681837016657</v>
+        <v>0.009438331562097706</v>
       </c>
       <c r="T10">
-        <v>0.002934681837016657</v>
+        <v>0.01182176678367161</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>6.32575140884735</v>
+        <v>0.264576</v>
       </c>
       <c r="H11">
-        <v>6.32575140884735</v>
+        <v>0.793728</v>
       </c>
       <c r="I11">
-        <v>0.282443030513338</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J11">
-        <v>0.282443030513338</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.8783055092127</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N11">
-        <v>2.8783055092127</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O11">
-        <v>0.83605129775894</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P11">
-        <v>0.83605129775894</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q11">
-        <v>18.20744512999533</v>
+        <v>0.004779477247999999</v>
       </c>
       <c r="R11">
-        <v>18.20744512999533</v>
+        <v>0.04301529523199999</v>
       </c>
       <c r="S11">
-        <v>0.2361368622036442</v>
+        <v>5.53198738121199E-05</v>
       </c>
       <c r="T11">
-        <v>0.2361368622036442</v>
+        <v>6.928964535800591E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>6.32575140884735</v>
+        <v>0.264576</v>
       </c>
       <c r="H12">
-        <v>6.32575140884735</v>
+        <v>0.793728</v>
       </c>
       <c r="I12">
-        <v>0.282443030513338</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J12">
-        <v>0.282443030513338</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.0166510490548062</v>
+        <v>0.057175</v>
       </c>
       <c r="N12">
-        <v>0.0166510490548062</v>
+        <v>0.171525</v>
       </c>
       <c r="O12">
-        <v>0.004836571770008642</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P12">
-        <v>0.004836571770008642</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q12">
-        <v>0.1053303970172266</v>
+        <v>0.0151271328</v>
       </c>
       <c r="R12">
-        <v>0.1053303970172266</v>
+        <v>0.1361441952</v>
       </c>
       <c r="S12">
-        <v>0.0013660559880165</v>
+        <v>0.0001750884111824901</v>
       </c>
       <c r="T12">
-        <v>0.0013660559880165</v>
+        <v>0.0002193029933208836</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>6.32575140884735</v>
+        <v>0.264576</v>
       </c>
       <c r="H13">
-        <v>6.32575140884735</v>
+        <v>0.793728</v>
       </c>
       <c r="I13">
-        <v>0.282443030513338</v>
+        <v>0.01147617284568409</v>
       </c>
       <c r="J13">
-        <v>0.282443030513338</v>
+        <v>0.01361959872281258</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.547781365742757</v>
+        <v>0.590216</v>
       </c>
       <c r="N13">
-        <v>0.547781365742757</v>
+        <v>1.180432</v>
       </c>
       <c r="O13">
-        <v>0.1591121304710512</v>
+        <v>0.1574944036566601</v>
       </c>
       <c r="P13">
-        <v>0.1591121304710512</v>
+        <v>0.1108137861605369</v>
       </c>
       <c r="Q13">
-        <v>3.465128746087571</v>
+        <v>0.156156988416</v>
       </c>
       <c r="R13">
-        <v>3.465128746087571</v>
+        <v>0.9369419304959999</v>
       </c>
       <c r="S13">
-        <v>0.04494011232167734</v>
+        <v>0.001807432998591772</v>
       </c>
       <c r="T13">
-        <v>0.04494011232167734</v>
+        <v>0.001509239300462074</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.21689974342459</v>
+        <v>0.413146</v>
       </c>
       <c r="H14">
-        <v>2.21689974342459</v>
+        <v>1.239438</v>
       </c>
       <c r="I14">
-        <v>0.09898395327412597</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J14">
-        <v>0.09898395327412597</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.8783055092127</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N14">
-        <v>2.8783055092127</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O14">
-        <v>0.83605129775894</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P14">
-        <v>0.83605129775894</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q14">
-        <v>6.380914744871219</v>
+        <v>1.273349299110667</v>
       </c>
       <c r="R14">
-        <v>6.380914744871219</v>
+        <v>11.460143691996</v>
       </c>
       <c r="S14">
-        <v>0.0827556625921433</v>
+        <v>0.01473833201633716</v>
       </c>
       <c r="T14">
-        <v>0.0827556625921433</v>
+        <v>0.01846016138881377</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.21689974342459</v>
+        <v>0.413146</v>
       </c>
       <c r="H15">
-        <v>2.21689974342459</v>
+        <v>1.239438</v>
       </c>
       <c r="I15">
-        <v>0.09898395327412597</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J15">
-        <v>0.09898395327412597</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0166510490548062</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N15">
-        <v>0.0166510490548062</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O15">
-        <v>0.004836571770008642</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P15">
-        <v>0.004836571770008642</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q15">
-        <v>0.03691370637735013</v>
+        <v>0.007463344774666665</v>
       </c>
       <c r="R15">
-        <v>0.03691370637735013</v>
+        <v>0.06717010297199999</v>
       </c>
       <c r="S15">
-        <v>0.0004787429940894922</v>
+        <v>8.638419428059268E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004787429940894922</v>
+        <v>0.0001081985509686393</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.21689974342459</v>
+        <v>0.413146</v>
       </c>
       <c r="H16">
-        <v>2.21689974342459</v>
+        <v>1.239438</v>
       </c>
       <c r="I16">
-        <v>0.09898395327412597</v>
+        <v>0.01792050264008451</v>
       </c>
       <c r="J16">
-        <v>0.09898395327412597</v>
+        <v>0.02126754782722214</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.547781365742757</v>
+        <v>0.057175</v>
       </c>
       <c r="N16">
-        <v>0.547781365742757</v>
+        <v>0.171525</v>
       </c>
       <c r="O16">
-        <v>0.1591121304710512</v>
+        <v>0.01525668997294134</v>
       </c>
       <c r="P16">
-        <v>0.1591121304710512</v>
+        <v>0.0161020157630309</v>
       </c>
       <c r="Q16">
-        <v>1.21437636916789</v>
+        <v>0.02362162255</v>
       </c>
       <c r="R16">
-        <v>1.21437636916789</v>
+        <v>0.21259460295</v>
       </c>
       <c r="S16">
-        <v>0.01574954768789317</v>
+        <v>0.0002734075529390461</v>
       </c>
       <c r="T16">
-        <v>0.01574954768789317</v>
+        <v>0.0003424503903549444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.413146</v>
+      </c>
+      <c r="H17">
+        <v>1.239438</v>
+      </c>
+      <c r="I17">
+        <v>0.01792050264008451</v>
+      </c>
+      <c r="J17">
+        <v>0.02126754782722214</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.590216</v>
+      </c>
+      <c r="N17">
+        <v>1.180432</v>
+      </c>
+      <c r="O17">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P17">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q17">
+        <v>0.243845379536</v>
+      </c>
+      <c r="R17">
+        <v>1.463072277216</v>
+      </c>
+      <c r="S17">
+        <v>0.002822378876527713</v>
+      </c>
+      <c r="T17">
+        <v>0.002356737497084785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H18">
+        <v>19.241697</v>
+      </c>
+      <c r="I18">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J18">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N18">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.822428495022819</v>
+      </c>
+      <c r="P18">
+        <v>0.8679967027127143</v>
+      </c>
+      <c r="Q18">
+        <v>19.76815410585267</v>
+      </c>
+      <c r="R18">
+        <v>177.913386952674</v>
+      </c>
+      <c r="S18">
+        <v>0.2288057320686945</v>
+      </c>
+      <c r="T18">
+        <v>0.2865853975871756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H19">
+        <v>19.241697</v>
+      </c>
+      <c r="I19">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J19">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.01806466666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.05419399999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.004820411347579552</v>
+      </c>
+      <c r="P19">
+        <v>0.005087495363717804</v>
+      </c>
+      <c r="Q19">
+        <v>0.1158649474686667</v>
+      </c>
+      <c r="R19">
+        <v>1.042784527218</v>
+      </c>
+      <c r="S19">
+        <v>0.001341074335252185</v>
+      </c>
+      <c r="T19">
+        <v>0.001679732050798518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H20">
+        <v>19.241697</v>
+      </c>
+      <c r="I20">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J20">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.057175</v>
+      </c>
+      <c r="N20">
+        <v>0.171525</v>
+      </c>
+      <c r="O20">
+        <v>0.01525668997294134</v>
+      </c>
+      <c r="P20">
+        <v>0.0161020157630309</v>
+      </c>
+      <c r="Q20">
+        <v>0.3667146753250001</v>
+      </c>
+      <c r="R20">
+        <v>3.300432077925</v>
+      </c>
+      <c r="S20">
+        <v>0.004244524769423387</v>
+      </c>
+      <c r="T20">
+        <v>0.005316382625626747</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.413899000000001</v>
+      </c>
+      <c r="H21">
+        <v>19.241697</v>
+      </c>
+      <c r="I21">
+        <v>0.2782074471560547</v>
+      </c>
+      <c r="J21">
+        <v>0.3301687629590321</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.590216</v>
+      </c>
+      <c r="N21">
+        <v>1.180432</v>
+      </c>
+      <c r="O21">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P21">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q21">
+        <v>3.785585812184</v>
+      </c>
+      <c r="R21">
+        <v>22.713514873104</v>
+      </c>
+      <c r="S21">
+        <v>0.04381611598268463</v>
+      </c>
+      <c r="T21">
+        <v>0.03658725069543117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.26402</v>
+      </c>
+      <c r="H22">
+        <v>4.52804</v>
+      </c>
+      <c r="I22">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J22">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N22">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.822428495022819</v>
+      </c>
+      <c r="P22">
+        <v>0.8679967027127143</v>
+      </c>
+      <c r="Q22">
+        <v>6.977892270946666</v>
+      </c>
+      <c r="R22">
+        <v>41.86735362568</v>
+      </c>
+      <c r="S22">
+        <v>0.08076534312719388</v>
+      </c>
+      <c r="T22">
+        <v>0.06744052479833948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.26402</v>
+      </c>
+      <c r="H23">
+        <v>4.52804</v>
+      </c>
+      <c r="I23">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J23">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.01806466666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.05419399999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.004820411347579552</v>
+      </c>
+      <c r="P23">
+        <v>0.005087495363717804</v>
+      </c>
+      <c r="Q23">
+        <v>0.04089876662666666</v>
+      </c>
+      <c r="R23">
+        <v>0.24539259976</v>
+      </c>
+      <c r="S23">
+        <v>0.0004733811861548881</v>
+      </c>
+      <c r="T23">
+        <v>0.0003952818670462237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.26402</v>
+      </c>
+      <c r="H24">
+        <v>4.52804</v>
+      </c>
+      <c r="I24">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J24">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.057175</v>
+      </c>
+      <c r="N24">
+        <v>0.171525</v>
+      </c>
+      <c r="O24">
+        <v>0.01525668997294134</v>
+      </c>
+      <c r="P24">
+        <v>0.0161020157630309</v>
+      </c>
+      <c r="Q24">
+        <v>0.1294453435</v>
+      </c>
+      <c r="R24">
+        <v>0.776672061</v>
+      </c>
+      <c r="S24">
+        <v>0.001498260101768041</v>
+      </c>
+      <c r="T24">
+        <v>0.001251074330093803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.26402</v>
+      </c>
+      <c r="H25">
+        <v>4.52804</v>
+      </c>
+      <c r="I25">
+        <v>0.09820348348333065</v>
+      </c>
+      <c r="J25">
+        <v>0.07769675228900108</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.590216</v>
+      </c>
+      <c r="N25">
+        <v>1.180432</v>
+      </c>
+      <c r="O25">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P25">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q25">
+        <v>1.33626082832</v>
+      </c>
+      <c r="R25">
+        <v>5.34504331328</v>
+      </c>
+      <c r="S25">
+        <v>0.01546649906821384</v>
+      </c>
+      <c r="T25">
+        <v>0.00860987129352157</v>
       </c>
     </row>
   </sheetData>
